--- a/Documentation/Class descriptions.xlsx
+++ b/Documentation/Class descriptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pauldanilin/Documents/HSE/CourseWorks/HistogramModel/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98665A0-A6B3-EA42-AE18-FB01D09561BB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46564E13-D997-F340-9DE6-8DAC77A9266F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0CA7BCAD-690E-1A42-B7BF-CE8354672EFF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="143">
   <si>
     <t>Класс</t>
   </si>
@@ -250,19 +250,230 @@
   </si>
   <si>
     <t>Операция ИСКЛЮЧАЮЩЕЕ КРОМЕ</t>
+  </si>
+  <si>
+    <t>HistogramImpl</t>
+  </si>
+  <si>
+    <t>extract</t>
+  </si>
+  <si>
+    <t>Histogram[O]</t>
+  </si>
+  <si>
+    <t>source: S)(implicit atomizer: Atomizer[S, O]</t>
+  </si>
+  <si>
+    <t>Создает гистограмму из объекта</t>
+  </si>
+  <si>
+    <t>toHistogramClass</t>
+  </si>
+  <si>
+    <t>toHistogram</t>
+  </si>
+  <si>
+    <t>Метод для преобразования к гистограмме</t>
+  </si>
+  <si>
+    <t>SetUniverse</t>
+  </si>
+  <si>
+    <t>Проверяет, есть ли элемент в множестве</t>
+  </si>
+  <si>
+    <t>unverseSet</t>
+  </si>
+  <si>
+    <t>Множество, из которого будет строиться универсальное множество</t>
+  </si>
+  <si>
+    <t>histogram</t>
+  </si>
+  <si>
+    <t>Map[O, Double]</t>
+  </si>
+  <si>
+    <t>Словарь входящих элементов в гистограмму в их количество</t>
+  </si>
+  <si>
+    <t>universe</t>
+  </si>
+  <si>
+    <t>ElementsUniverse[O]</t>
+  </si>
+  <si>
+    <t>Универсальное множество элементов гистограммы</t>
+  </si>
+  <si>
+    <t>OneHistogram</t>
+  </si>
+  <si>
+    <t>Универсальное множество</t>
+  </si>
+  <si>
+    <t>ZeroHistogram</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>narity</t>
+  </si>
+  <si>
+    <t>Н-арность операции</t>
+  </si>
+  <si>
+    <t>HistogramUnaryOperation</t>
+  </si>
+  <si>
+    <t>Применение унарной операции над одним операндом</t>
+  </si>
+  <si>
+    <t>HistogramBinaryOperation</t>
+  </si>
+  <si>
+    <t>first: Histogram[E], second: Histogram[E]</t>
+  </si>
+  <si>
+    <t>Применение бинарной операции над двумя операндами</t>
+  </si>
+  <si>
+    <t>histogram: Histogram[E], properties: ElementsUniverse[E]</t>
+  </si>
+  <si>
+    <t>HistogramBinaryMergeOperation</t>
+  </si>
+  <si>
+    <t>merge</t>
+  </si>
+  <si>
+    <t>leftCount: Double, rightCount: Double</t>
+  </si>
+  <si>
+    <t>Метод для поэлементного результата операции</t>
+  </si>
+  <si>
+    <t>And</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>histogram: Histogram[E]</t>
+  </si>
+  <si>
+    <t>Количество элементов в гистограмме</t>
+  </si>
+  <si>
+    <t>Применение И над операндами</t>
+  </si>
+  <si>
+    <t>Поэлементная логика операции КРОМЕ</t>
+  </si>
+  <si>
+    <t>Besides</t>
+  </si>
+  <si>
+    <t>Intersect</t>
+  </si>
+  <si>
+    <t>Поэлементная логика операции ПЕРЕСЕЧЕНИЕ</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>a: Double, b: Double</t>
+  </si>
+  <si>
+    <t>Минимальное из двух значений</t>
+  </si>
+  <si>
+    <t>Not</t>
+  </si>
+  <si>
+    <t>Применение операции НЕ</t>
+  </si>
+  <si>
+    <t>Or</t>
+  </si>
+  <si>
+    <t>Поэлементная логика операции ИЛИ</t>
+  </si>
+  <si>
+    <t>Similar</t>
+  </si>
+  <si>
+    <t>left: Histogram[E], right: Histogram[E]</t>
+  </si>
+  <si>
+    <t>Схожесть двух гистограмм</t>
+  </si>
+  <si>
+    <t>Subtract</t>
+  </si>
+  <si>
+    <t>Поэлементная логика операции Вычитание</t>
+  </si>
+  <si>
+    <t>Unite</t>
+  </si>
+  <si>
+    <t>Поэлементная логика операции ОБЪЕДИНЕНИЕ</t>
+  </si>
+  <si>
+    <t>Максимальное из двух значений</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>Xbesides</t>
+  </si>
+  <si>
+    <t>Применение операции ИСКЛЮЧАЮЩЕЕ КРОМЕ</t>
+  </si>
+  <si>
+    <t>Xor</t>
+  </si>
+  <si>
+    <t>Применение операции ИСКЛЮЧАЮЩЕЕ ИЛИ</t>
+  </si>
+  <si>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>f: Node[E] =&gt; Node[E]</t>
+  </si>
+  <si>
+    <t>Node[E]</t>
+  </si>
+  <si>
+    <t>Преобразует узел дерева</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -286,8 +497,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E908023-0F4A-F746-8F0C-8318E7AD5793}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D214" sqref="D214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1410,6 +1622,1357 @@
         <v>74</v>
       </c>
     </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" t="s">
+        <v>88</v>
+      </c>
+      <c r="D86" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>24</v>
+      </c>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" t="s">
+        <v>55</v>
+      </c>
+      <c r="D90" t="s">
+        <v>36</v>
+      </c>
+      <c r="E90" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>39</v>
+      </c>
+      <c r="C91" t="s">
+        <v>56</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>40</v>
+      </c>
+      <c r="C92" t="s">
+        <v>57</v>
+      </c>
+      <c r="D92" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>41</v>
+      </c>
+      <c r="C93" t="s">
+        <v>58</v>
+      </c>
+      <c r="D93" t="s">
+        <v>61</v>
+      </c>
+      <c r="E93" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>76</v>
+      </c>
+      <c r="B94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" t="s">
+        <v>77</v>
+      </c>
+      <c r="D94" t="s">
+        <v>78</v>
+      </c>
+      <c r="E94" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>81</v>
+      </c>
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" t="s">
+        <v>77</v>
+      </c>
+      <c r="D99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>85</v>
+      </c>
+      <c r="B104" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" t="s">
+        <v>57</v>
+      </c>
+      <c r="D104" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" t="s">
+        <v>36</v>
+      </c>
+      <c r="E107" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>2</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>90</v>
+      </c>
+      <c r="B112" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" t="s">
+        <v>56</v>
+      </c>
+      <c r="D112" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>3</v>
+      </c>
+      <c r="D114" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>24</v>
+      </c>
+      <c r="B115" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" t="s">
+        <v>55</v>
+      </c>
+      <c r="D115" t="s">
+        <v>36</v>
+      </c>
+      <c r="E115" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>39</v>
+      </c>
+      <c r="C116" t="s">
+        <v>56</v>
+      </c>
+      <c r="D116" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>40</v>
+      </c>
+      <c r="C117" t="s">
+        <v>57</v>
+      </c>
+      <c r="D117" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>41</v>
+      </c>
+      <c r="C118" t="s">
+        <v>58</v>
+      </c>
+      <c r="D118" t="s">
+        <v>61</v>
+      </c>
+      <c r="E118" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>2</v>
+      </c>
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" t="s">
+        <v>3</v>
+      </c>
+      <c r="D122" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>90</v>
+      </c>
+      <c r="B123" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" t="s">
+        <v>56</v>
+      </c>
+      <c r="D123" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>2</v>
+      </c>
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>3</v>
+      </c>
+      <c r="D125" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>24</v>
+      </c>
+      <c r="B126" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" t="s">
+        <v>55</v>
+      </c>
+      <c r="D126" t="s">
+        <v>36</v>
+      </c>
+      <c r="E126" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>39</v>
+      </c>
+      <c r="C127" t="s">
+        <v>56</v>
+      </c>
+      <c r="D127" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>40</v>
+      </c>
+      <c r="C128" t="s">
+        <v>57</v>
+      </c>
+      <c r="D128" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>41</v>
+      </c>
+      <c r="C129" t="s">
+        <v>58</v>
+      </c>
+      <c r="D129" t="s">
+        <v>61</v>
+      </c>
+      <c r="E129" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" t="s">
+        <v>3</v>
+      </c>
+      <c r="D133" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>97</v>
+      </c>
+      <c r="B134" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134" t="s">
+        <v>55</v>
+      </c>
+      <c r="D134" t="s">
+        <v>10</v>
+      </c>
+      <c r="E134" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>2</v>
+      </c>
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" t="s">
+        <v>3</v>
+      </c>
+      <c r="D138" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>97</v>
+      </c>
+      <c r="B139" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" t="s">
+        <v>55</v>
+      </c>
+      <c r="D139" t="s">
+        <v>10</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>24</v>
+      </c>
+      <c r="B140" t="s">
+        <v>10</v>
+      </c>
+      <c r="C140" t="s">
+        <v>58</v>
+      </c>
+      <c r="D140" t="s">
+        <v>58</v>
+      </c>
+      <c r="E140" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>2</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" t="s">
+        <v>3</v>
+      </c>
+      <c r="D144" t="s">
+        <v>7</v>
+      </c>
+      <c r="E144" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>97</v>
+      </c>
+      <c r="B145" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" t="s">
+        <v>55</v>
+      </c>
+      <c r="D145" t="s">
+        <v>10</v>
+      </c>
+      <c r="E145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>24</v>
+      </c>
+      <c r="B146" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146" t="s">
+        <v>58</v>
+      </c>
+      <c r="D146" t="s">
+        <v>102</v>
+      </c>
+      <c r="E146" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>24</v>
+      </c>
+      <c r="B147" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" t="s">
+        <v>58</v>
+      </c>
+      <c r="D147" t="s">
+        <v>104</v>
+      </c>
+      <c r="E147" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>2</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" t="s">
+        <v>3</v>
+      </c>
+      <c r="D151" t="s">
+        <v>7</v>
+      </c>
+      <c r="E151" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>24</v>
+      </c>
+      <c r="B152" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152" t="s">
+        <v>58</v>
+      </c>
+      <c r="D152" t="s">
+        <v>102</v>
+      </c>
+      <c r="E152" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B153" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153" t="s">
+        <v>55</v>
+      </c>
+      <c r="D153" t="s">
+        <v>107</v>
+      </c>
+      <c r="E153" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>2</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" t="s">
+        <v>3</v>
+      </c>
+      <c r="D157" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>24</v>
+      </c>
+      <c r="B158" t="s">
+        <v>10</v>
+      </c>
+      <c r="C158" t="s">
+        <v>58</v>
+      </c>
+      <c r="D158" t="s">
+        <v>102</v>
+      </c>
+      <c r="E158" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B159" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" t="s">
+        <v>55</v>
+      </c>
+      <c r="D159" t="s">
+        <v>111</v>
+      </c>
+      <c r="E159" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>0</v>
+      </c>
+      <c r="B161" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>2</v>
+      </c>
+      <c r="B163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" t="s">
+        <v>3</v>
+      </c>
+      <c r="D163" t="s">
+        <v>7</v>
+      </c>
+      <c r="E163" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>106</v>
+      </c>
+      <c r="B164" t="s">
+        <v>10</v>
+      </c>
+      <c r="C164" t="s">
+        <v>55</v>
+      </c>
+      <c r="D164" t="s">
+        <v>107</v>
+      </c>
+      <c r="E164" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="1"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>2</v>
+      </c>
+      <c r="B168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" t="s">
+        <v>3</v>
+      </c>
+      <c r="D168" t="s">
+        <v>7</v>
+      </c>
+      <c r="E168" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>106</v>
+      </c>
+      <c r="B169" t="s">
+        <v>10</v>
+      </c>
+      <c r="C169" t="s">
+        <v>55</v>
+      </c>
+      <c r="D169" t="s">
+        <v>107</v>
+      </c>
+      <c r="E169" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>118</v>
+      </c>
+      <c r="B170" t="s">
+        <v>10</v>
+      </c>
+      <c r="C170" t="s">
+        <v>55</v>
+      </c>
+      <c r="D170" t="s">
+        <v>119</v>
+      </c>
+      <c r="E170" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>2</v>
+      </c>
+      <c r="B174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174" t="s">
+        <v>3</v>
+      </c>
+      <c r="D174" t="s">
+        <v>7</v>
+      </c>
+      <c r="E174" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>24</v>
+      </c>
+      <c r="B175" t="s">
+        <v>10</v>
+      </c>
+      <c r="C175" t="s">
+        <v>58</v>
+      </c>
+      <c r="D175" t="s">
+        <v>111</v>
+      </c>
+      <c r="E175" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>2</v>
+      </c>
+      <c r="B179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179" t="s">
+        <v>3</v>
+      </c>
+      <c r="D179" t="s">
+        <v>7</v>
+      </c>
+      <c r="E179" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>106</v>
+      </c>
+      <c r="B180" t="s">
+        <v>10</v>
+      </c>
+      <c r="C180" t="s">
+        <v>55</v>
+      </c>
+      <c r="D180" t="s">
+        <v>107</v>
+      </c>
+      <c r="E180" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>0</v>
+      </c>
+      <c r="B182" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>2</v>
+      </c>
+      <c r="B184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" t="s">
+        <v>3</v>
+      </c>
+      <c r="D184" t="s">
+        <v>7</v>
+      </c>
+      <c r="E184" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>24</v>
+      </c>
+      <c r="B185" t="s">
+        <v>10</v>
+      </c>
+      <c r="C185" t="s">
+        <v>58</v>
+      </c>
+      <c r="D185" t="s">
+        <v>126</v>
+      </c>
+      <c r="E185" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B187" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>2</v>
+      </c>
+      <c r="B189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" t="s">
+        <v>3</v>
+      </c>
+      <c r="D189" t="s">
+        <v>7</v>
+      </c>
+      <c r="E189" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>106</v>
+      </c>
+      <c r="B190" t="s">
+        <v>10</v>
+      </c>
+      <c r="C190" t="s">
+        <v>55</v>
+      </c>
+      <c r="D190" t="s">
+        <v>107</v>
+      </c>
+      <c r="E190" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>0</v>
+      </c>
+      <c r="B192" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>2</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>3</v>
+      </c>
+      <c r="D194" t="s">
+        <v>7</v>
+      </c>
+      <c r="E194" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>106</v>
+      </c>
+      <c r="B195" t="s">
+        <v>10</v>
+      </c>
+      <c r="C195" t="s">
+        <v>55</v>
+      </c>
+      <c r="D195" t="s">
+        <v>107</v>
+      </c>
+      <c r="E195" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>133</v>
+      </c>
+      <c r="B196" t="s">
+        <v>10</v>
+      </c>
+      <c r="C196" t="s">
+        <v>55</v>
+      </c>
+      <c r="D196" t="s">
+        <v>119</v>
+      </c>
+      <c r="E196" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>2</v>
+      </c>
+      <c r="B200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200" t="s">
+        <v>3</v>
+      </c>
+      <c r="D200" t="s">
+        <v>7</v>
+      </c>
+      <c r="E200" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>24</v>
+      </c>
+      <c r="B201" t="s">
+        <v>10</v>
+      </c>
+      <c r="C201" t="s">
+        <v>58</v>
+      </c>
+      <c r="D201" t="s">
+        <v>126</v>
+      </c>
+      <c r="E201" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>0</v>
+      </c>
+      <c r="B203" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>2</v>
+      </c>
+      <c r="B205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C205" t="s">
+        <v>3</v>
+      </c>
+      <c r="D205" t="s">
+        <v>7</v>
+      </c>
+      <c r="E205" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>24</v>
+      </c>
+      <c r="B206" t="s">
+        <v>10</v>
+      </c>
+      <c r="C206" t="s">
+        <v>58</v>
+      </c>
+      <c r="D206" t="s">
+        <v>126</v>
+      </c>
+      <c r="E206" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>0</v>
+      </c>
+      <c r="B208" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>2</v>
+      </c>
+      <c r="B210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210" t="s">
+        <v>3</v>
+      </c>
+      <c r="D210" t="s">
+        <v>7</v>
+      </c>
+      <c r="E210" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>139</v>
+      </c>
+      <c r="B211" t="s">
+        <v>10</v>
+      </c>
+      <c r="C211" t="s">
+        <v>141</v>
+      </c>
+      <c r="D211" t="s">
+        <v>140</v>
+      </c>
+      <c r="E211" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Documentation/Class descriptions.xlsx
+++ b/Documentation/Class descriptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pauldanilin/Documents/HSE/CourseWorks/HistogramModel/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46564E13-D997-F340-9DE6-8DAC77A9266F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD3D197-BF38-D54A-A9C8-1944831F20AD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0CA7BCAD-690E-1A42-B7BF-CE8354672EFF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="200">
   <si>
     <t>Класс</t>
   </si>
@@ -454,6 +454,177 @@
   </si>
   <si>
     <t>Преобразует узел дерева</t>
+  </si>
+  <si>
+    <t>BinaryOperationNode</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>UnaryOperationNode</t>
+  </si>
+  <si>
+    <t>Операция в узле</t>
+  </si>
+  <si>
+    <t>Левое поддерево</t>
+  </si>
+  <si>
+    <t>Правое поддерево</t>
+  </si>
+  <si>
+    <t>Поддерево</t>
+  </si>
+  <si>
+    <t>AggregateOperationNode</t>
+  </si>
+  <si>
+    <t>AggregateOperation</t>
+  </si>
+  <si>
+    <t>Гистограмма в узле</t>
+  </si>
+  <si>
+    <t>SubhistogramNode</t>
+  </si>
+  <si>
+    <t>properties</t>
+  </si>
+  <si>
+    <t>originOpt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option[Node[E]] </t>
+  </si>
+  <si>
+    <t>Подмножество</t>
+  </si>
+  <si>
+    <t>Поддерево узла</t>
+  </si>
+  <si>
+    <t>OperationInput</t>
+  </si>
+  <si>
+    <t>Вводимая операция</t>
+  </si>
+  <si>
+    <t>SubhistogramInput</t>
+  </si>
+  <si>
+    <t>Подмножество элементов</t>
+  </si>
+  <si>
+    <t>HistogramInput</t>
+  </si>
+  <si>
+    <t>Гистограмма</t>
+  </si>
+  <si>
+    <t>Parser</t>
+  </si>
+  <si>
+    <t>parse</t>
+  </si>
+  <si>
+    <t>Option[Stack[Input[E]]]</t>
+  </si>
+  <si>
+    <t>query: String, implicit aliasToInput: Map[String, Input[E]]</t>
+  </si>
+  <si>
+    <t>getLexems</t>
+  </si>
+  <si>
+    <t>query: String, acc: Stack[Input[E]], aliasToInput: Map[String, Input[E]]</t>
+  </si>
+  <si>
+    <t>toPolishNotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stack[Input[E]] </t>
+  </si>
+  <si>
+    <t>query: Stack[Input[E]], resultAcc: Stack[Input[E]], operandsAcc: Stack[Input[E]]</t>
+  </si>
+  <si>
+    <t>Преобразует последовательность входов в польскую инверсную последовательность</t>
+  </si>
+  <si>
+    <t>Преобразует строку в последовательность входных конструкций</t>
+  </si>
+  <si>
+    <t>Преобразует строку в последовательность входных лексем в польской нотации</t>
+  </si>
+  <si>
+    <t>TreeExecutor</t>
+  </si>
+  <si>
+    <t>execute</t>
+  </si>
+  <si>
+    <t>Either[Histogram[E], Double]</t>
+  </si>
+  <si>
+    <t>tree: Node[E]</t>
+  </si>
+  <si>
+    <t>Исполняет вычисления на АСТ</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>АСТ</t>
+  </si>
+  <si>
+    <t>parseStack</t>
+  </si>
+  <si>
+    <t>fromString</t>
+  </si>
+  <si>
+    <t>standardAliases</t>
+  </si>
+  <si>
+    <t>Map[String, Input[E]]</t>
+  </si>
+  <si>
+    <t>Стандартные алиасы входных конструкций</t>
+  </si>
+  <si>
+    <t>Исполняет запрос</t>
+  </si>
+  <si>
+    <t>Преобразует польскую запись в АСТ входных конструкций</t>
+  </si>
+  <si>
+    <t>operationsStack: Stack[Input[E]]</t>
+  </si>
+  <si>
+    <t>Query[E]</t>
+  </si>
+  <si>
+    <t>Stack[Input[E]]</t>
+  </si>
+  <si>
+    <t>Формирует запрос по последовательности входных конструкций</t>
+  </si>
+  <si>
+    <t>query: String, aliasToInput: Map[String, Input[E]]</t>
+  </si>
+  <si>
+    <t>Формирует запрос по строковому представлению</t>
   </si>
 </sst>
 </file>
@@ -497,9 +668,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -814,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E908023-0F4A-F746-8F0C-8318E7AD5793}">
-  <dimension ref="A1:E211"/>
+  <dimension ref="A1:E296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D214" sqref="D214"/>
+    <sheetView tabSelected="1" topLeftCell="A275" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E297" sqref="E297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2973,6 +3147,889 @@
         <v>142</v>
       </c>
     </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>0</v>
+      </c>
+      <c r="B213" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>2</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215" t="s">
+        <v>3</v>
+      </c>
+      <c r="D215" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>144</v>
+      </c>
+      <c r="B216" t="s">
+        <v>10</v>
+      </c>
+      <c r="C216" t="s">
+        <v>101</v>
+      </c>
+      <c r="D216" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>145</v>
+      </c>
+      <c r="B217" t="s">
+        <v>10</v>
+      </c>
+      <c r="C217" t="s">
+        <v>141</v>
+      </c>
+      <c r="D217" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>146</v>
+      </c>
+      <c r="B218" t="s">
+        <v>10</v>
+      </c>
+      <c r="C218" t="s">
+        <v>141</v>
+      </c>
+      <c r="D218" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>2</v>
+      </c>
+      <c r="B220" t="s">
+        <v>5</v>
+      </c>
+      <c r="C220" t="s">
+        <v>3</v>
+      </c>
+      <c r="D220" t="s">
+        <v>7</v>
+      </c>
+      <c r="E220" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>139</v>
+      </c>
+      <c r="B221" t="s">
+        <v>10</v>
+      </c>
+      <c r="C221" t="s">
+        <v>141</v>
+      </c>
+      <c r="D221" t="s">
+        <v>140</v>
+      </c>
+      <c r="E221" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>0</v>
+      </c>
+      <c r="B223" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>2</v>
+      </c>
+      <c r="B225" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225" t="s">
+        <v>3</v>
+      </c>
+      <c r="D225" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>144</v>
+      </c>
+      <c r="B226" t="s">
+        <v>10</v>
+      </c>
+      <c r="C226" t="s">
+        <v>99</v>
+      </c>
+      <c r="D226" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>87</v>
+      </c>
+      <c r="B227" t="s">
+        <v>10</v>
+      </c>
+      <c r="C227" t="s">
+        <v>141</v>
+      </c>
+      <c r="D227" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>2</v>
+      </c>
+      <c r="B229" t="s">
+        <v>5</v>
+      </c>
+      <c r="C229" t="s">
+        <v>3</v>
+      </c>
+      <c r="D229" t="s">
+        <v>7</v>
+      </c>
+      <c r="E229" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>139</v>
+      </c>
+      <c r="B230" t="s">
+        <v>10</v>
+      </c>
+      <c r="C230" t="s">
+        <v>141</v>
+      </c>
+      <c r="D230" t="s">
+        <v>140</v>
+      </c>
+      <c r="E230" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>0</v>
+      </c>
+      <c r="B232" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>2</v>
+      </c>
+      <c r="B234" t="s">
+        <v>5</v>
+      </c>
+      <c r="C234" t="s">
+        <v>3</v>
+      </c>
+      <c r="D234" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>144</v>
+      </c>
+      <c r="B235" t="s">
+        <v>10</v>
+      </c>
+      <c r="C235" t="s">
+        <v>153</v>
+      </c>
+      <c r="D235" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>145</v>
+      </c>
+      <c r="B236" t="s">
+        <v>10</v>
+      </c>
+      <c r="C236" t="s">
+        <v>141</v>
+      </c>
+      <c r="D236" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>146</v>
+      </c>
+      <c r="B237" t="s">
+        <v>10</v>
+      </c>
+      <c r="C237" t="s">
+        <v>141</v>
+      </c>
+      <c r="D237" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>2</v>
+      </c>
+      <c r="B239" t="s">
+        <v>5</v>
+      </c>
+      <c r="C239" t="s">
+        <v>3</v>
+      </c>
+      <c r="D239" t="s">
+        <v>7</v>
+      </c>
+      <c r="E239" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>139</v>
+      </c>
+      <c r="B240" t="s">
+        <v>10</v>
+      </c>
+      <c r="C240" t="s">
+        <v>141</v>
+      </c>
+      <c r="D240" t="s">
+        <v>140</v>
+      </c>
+      <c r="E240" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>0</v>
+      </c>
+      <c r="B242" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>2</v>
+      </c>
+      <c r="B244" t="s">
+        <v>5</v>
+      </c>
+      <c r="C244" t="s">
+        <v>3</v>
+      </c>
+      <c r="D244" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>87</v>
+      </c>
+      <c r="B245" t="s">
+        <v>10</v>
+      </c>
+      <c r="C245" t="s">
+        <v>153</v>
+      </c>
+      <c r="D245" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>2</v>
+      </c>
+      <c r="B247" t="s">
+        <v>5</v>
+      </c>
+      <c r="C247" t="s">
+        <v>3</v>
+      </c>
+      <c r="D247" t="s">
+        <v>7</v>
+      </c>
+      <c r="E247" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>139</v>
+      </c>
+      <c r="B248" t="s">
+        <v>10</v>
+      </c>
+      <c r="C248" t="s">
+        <v>141</v>
+      </c>
+      <c r="D248" t="s">
+        <v>140</v>
+      </c>
+      <c r="E248" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>0</v>
+      </c>
+      <c r="B250" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>2</v>
+      </c>
+      <c r="B252" t="s">
+        <v>5</v>
+      </c>
+      <c r="C252" t="s">
+        <v>3</v>
+      </c>
+      <c r="D252" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>156</v>
+      </c>
+      <c r="B253" t="s">
+        <v>10</v>
+      </c>
+      <c r="C253" t="s">
+        <v>56</v>
+      </c>
+      <c r="D253" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>157</v>
+      </c>
+      <c r="B254" t="s">
+        <v>10</v>
+      </c>
+      <c r="C254" t="s">
+        <v>158</v>
+      </c>
+      <c r="D254" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>2</v>
+      </c>
+      <c r="B256" t="s">
+        <v>5</v>
+      </c>
+      <c r="C256" t="s">
+        <v>3</v>
+      </c>
+      <c r="D256" t="s">
+        <v>7</v>
+      </c>
+      <c r="E256" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>139</v>
+      </c>
+      <c r="B257" t="s">
+        <v>10</v>
+      </c>
+      <c r="C257" t="s">
+        <v>141</v>
+      </c>
+      <c r="D257" t="s">
+        <v>140</v>
+      </c>
+      <c r="E257" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>0</v>
+      </c>
+      <c r="B259" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>2</v>
+      </c>
+      <c r="B261" t="s">
+        <v>5</v>
+      </c>
+      <c r="C261" t="s">
+        <v>3</v>
+      </c>
+      <c r="D261" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>144</v>
+      </c>
+      <c r="B262" t="s">
+        <v>10</v>
+      </c>
+      <c r="C262" t="s">
+        <v>96</v>
+      </c>
+      <c r="D262" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>0</v>
+      </c>
+      <c r="B264" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>2</v>
+      </c>
+      <c r="B266" t="s">
+        <v>5</v>
+      </c>
+      <c r="C266" t="s">
+        <v>3</v>
+      </c>
+      <c r="D266" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>156</v>
+      </c>
+      <c r="B267" t="s">
+        <v>10</v>
+      </c>
+      <c r="C267" t="s">
+        <v>56</v>
+      </c>
+      <c r="D267" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>0</v>
+      </c>
+      <c r="B269" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>2</v>
+      </c>
+      <c r="B271" t="s">
+        <v>5</v>
+      </c>
+      <c r="C271" t="s">
+        <v>3</v>
+      </c>
+      <c r="D271" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>87</v>
+      </c>
+      <c r="B272" t="s">
+        <v>10</v>
+      </c>
+      <c r="C272" t="s">
+        <v>58</v>
+      </c>
+      <c r="D272" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>0</v>
+      </c>
+      <c r="B274" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>2</v>
+      </c>
+      <c r="B276" t="s">
+        <v>5</v>
+      </c>
+      <c r="C276" t="s">
+        <v>3</v>
+      </c>
+      <c r="D276" t="s">
+        <v>7</v>
+      </c>
+      <c r="E276" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>168</v>
+      </c>
+      <c r="B277" t="s">
+        <v>10</v>
+      </c>
+      <c r="C277" t="s">
+        <v>169</v>
+      </c>
+      <c r="D277" t="s">
+        <v>170</v>
+      </c>
+      <c r="E277" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>171</v>
+      </c>
+      <c r="B278" t="s">
+        <v>10</v>
+      </c>
+      <c r="C278" t="s">
+        <v>169</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E278" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>173</v>
+      </c>
+      <c r="B279" t="s">
+        <v>10</v>
+      </c>
+      <c r="C279" t="s">
+        <v>174</v>
+      </c>
+      <c r="D279" t="s">
+        <v>175</v>
+      </c>
+      <c r="E279" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>0</v>
+      </c>
+      <c r="B281" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>2</v>
+      </c>
+      <c r="B283" t="s">
+        <v>5</v>
+      </c>
+      <c r="C283" t="s">
+        <v>3</v>
+      </c>
+      <c r="D283" t="s">
+        <v>7</v>
+      </c>
+      <c r="E283" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>180</v>
+      </c>
+      <c r="B284" t="s">
+        <v>10</v>
+      </c>
+      <c r="C284" t="s">
+        <v>181</v>
+      </c>
+      <c r="D284" t="s">
+        <v>182</v>
+      </c>
+      <c r="E284" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D285" s="2"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>0</v>
+      </c>
+      <c r="B286" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>2</v>
+      </c>
+      <c r="B288" t="s">
+        <v>5</v>
+      </c>
+      <c r="C288" t="s">
+        <v>3</v>
+      </c>
+      <c r="D288" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>185</v>
+      </c>
+      <c r="B289" t="s">
+        <v>10</v>
+      </c>
+      <c r="C289" t="s">
+        <v>141</v>
+      </c>
+      <c r="D289" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>189</v>
+      </c>
+      <c r="B290" t="s">
+        <v>10</v>
+      </c>
+      <c r="C290" t="s">
+        <v>190</v>
+      </c>
+      <c r="D290" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>2</v>
+      </c>
+      <c r="B292" t="s">
+        <v>5</v>
+      </c>
+      <c r="C292" t="s">
+        <v>3</v>
+      </c>
+      <c r="D292" t="s">
+        <v>7</v>
+      </c>
+      <c r="E292" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>180</v>
+      </c>
+      <c r="B293" t="s">
+        <v>10</v>
+      </c>
+      <c r="C293" t="s">
+        <v>181</v>
+      </c>
+      <c r="D293" t="s">
+        <v>111</v>
+      </c>
+      <c r="E293" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>187</v>
+      </c>
+      <c r="B294" t="s">
+        <v>10</v>
+      </c>
+      <c r="C294" t="s">
+        <v>141</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E294" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>24</v>
+      </c>
+      <c r="B295" t="s">
+        <v>10</v>
+      </c>
+      <c r="C295" t="s">
+        <v>195</v>
+      </c>
+      <c r="D295" t="s">
+        <v>196</v>
+      </c>
+      <c r="E295" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>188</v>
+      </c>
+      <c r="B296" t="s">
+        <v>10</v>
+      </c>
+      <c r="C296" t="s">
+        <v>195</v>
+      </c>
+      <c r="D296" t="s">
+        <v>198</v>
+      </c>
+      <c r="E296" t="s">
+        <v>199</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Documentation/Class descriptions.xlsx
+++ b/Documentation/Class descriptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pauldanilin/Documents/HSE/CourseWorks/HistogramModel/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD3D197-BF38-D54A-A9C8-1944831F20AD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57719DDC-22DC-CC4F-A058-FC3DD4847614}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0CA7BCAD-690E-1A42-B7BF-CE8354672EFF}"/>
   </bookViews>
@@ -991,7 +991,7 @@
   <dimension ref="A1:E296"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A275" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E297" sqref="E297"/>
+      <selection activeCell="G284" sqref="G284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
